--- a/medicine/Enfance/Les_Chapardeurs_sauvés/Les_Chapardeurs_sauvés.xlsx
+++ b/medicine/Enfance/Les_Chapardeurs_sauvés/Les_Chapardeurs_sauvés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Chapardeurs_sauv%C3%A9s</t>
+          <t>Les_Chapardeurs_sauvés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Chapardeurs sauvés (titre original : The Borrowers Avenged) est le cinquième et dernier roman de la série Les Chapardeurs de l'écrivaine britannique Mary Norton, paru au Royaume-Uni en 1982 et en France en 1984 chez L'École des loisirs.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Chapardeurs_sauv%C3%A9s</t>
+          <t>Les_Chapardeurs_sauvés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après s'être échappée en montgolfière, la famille Horloge retourne temporairement à Little Fordham tandis que Pod et Spiller partent en quête d'un nouveau foyer. Les deux  hommes reviennent avec des nouvelles des Hendreary : ils vivent dans l’église de Fordham. Pod explique également que le presbytère près de l'église serait potentiellement un bon foyer, il n'y a que le gardien et sa femme (M. et Mme Whitelace) qui y vivent, ce qui en ferait une maison idéale. Ils chargent donc tous leurs effets personnels dans le bateau de Spiller et se dirigent vers ce presbytère.
 Entre-temps, les Platters prévoient de retourner à Little Fordham afin de capturer une nouvelle fois les chapardeurs. Ils arrivent juste au moment où les Horloge et Spiller partent : ils leur échappent donc de justesse. Les Platters tentent de fouiller le village miniature de M. Pott mais finissent par détruire par inadvertance de nombreux bâtiments miniatures. Ils trouvent tout de même le vieux tablier d’Homily.
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Chapardeurs_sauv%C3%A9s</t>
+          <t>Les_Chapardeurs_sauvés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Nouveaux personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Peagreen Dessus de cheminée (Overmantel) - Peagreen vivait au-dessus de la cheminée avec sa famille mais quand il était jeune garçon, sa famille a dû déménager car les humains étaient en train de rénover la cheminée. Dans l'agitation, il est tombé et s'est cassé la jambe. Sa famille était tellement pressée qu'ils l'ont laissé derrière eux. Une autre famille d'emprunteurs venue s’installer l'ont accueillis mais ils ont finalement déménagé aussi. Depuis, il vit seul dans le presbytère. Il écrit un livre sur l'histoire des Dessus de cheminée et s'entend très bien avec Arietty. Il semble amoureux de celle-ci.
 Lady Béatrice Mullings - La «trouveuse» du village. La légende prétend qu'elle peut retrouver des personnes et des objets perdus en utilisant son sixième sens .
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Chapardeurs_sauv%C3%A9s</t>
+          <t>Les_Chapardeurs_sauvés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Lieux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Église de Fordham - lieu où vivent Les Hendreary. Église dont M. Pott s'est inspiré pour construire son église miniature.
 Presbytère de l'église : maison des Whitelace et nouveau foyer de la famille Horloge.</t>
